--- a/trawl-transect-info.xlsx
+++ b/trawl-transect-info.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="141">
   <si>
     <t>attributeName</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>0009-0002-4496-6600</t>
-  </si>
-  <si>
-    <t>Technician</t>
   </si>
   <si>
     <t>Sarah</t>

--- a/trawl-transect-info.xlsx
+++ b/trawl-transect-info.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="144">
   <si>
     <t>attributeName</t>
   </si>
@@ -116,9 +116,6 @@
     <t>definition</t>
   </si>
   <si>
-    <t>categorical</t>
-  </si>
-  <si>
     <t>PI</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
     <t>abundance</t>
   </si>
   <si>
-    <t>eventID</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -233,24 +227,12 @@
     <t>Aphia ID</t>
   </si>
   <si>
-    <t>individualCount</t>
-  </si>
-  <si>
     <t>split</t>
   </si>
   <si>
-    <t>Abundant taxa were counted from a split</t>
-  </si>
-  <si>
     <t>Trawl number sequential within cruise</t>
   </si>
   <si>
-    <t>The number of vessels the sample was put into</t>
-  </si>
-  <si>
-    <t>Which of the sampling jars was processed</t>
-  </si>
-  <si>
     <t>eventDate</t>
   </si>
   <si>
@@ -332,9 +314,6 @@
     <t>preparations</t>
   </si>
   <si>
-    <t>Substance and/or method of preservation of each sample, typically formalin or ethanol </t>
-  </si>
-  <si>
     <t>YYYY-MM-DD</t>
   </si>
   <si>
@@ -371,9 +350,6 @@
     <t>depth_tow</t>
   </si>
   <si>
-    <t>Identifier consisting of cruise identifier and cast http://rs.tdwg.org/dwc/terms/eventID</t>
-  </si>
-  <si>
     <t>Family name of taxon http://rs.tdwg.org/dwc/terms/family</t>
   </si>
   <si>
@@ -383,24 +359,12 @@
     <t>Taxon scientific name identifier http://rs.tdwg.org/dwc/terms/scientificNameID</t>
   </si>
   <si>
-    <t>Taxon life stage http://rs.tdwg.org/dwc/iri/lifeStage</t>
-  </si>
-  <si>
     <t>Taxon descriptive name  http://rs.tdwg.org/dwc/terms/verbatimIdentification</t>
   </si>
   <si>
-    <t>Trawl number, chronological per cruise, corresponding to cast in ship's event log</t>
-  </si>
-  <si>
-    <t>Taxon abundance as net total http://rs.tdwg.org/dwc/terms/individualCount</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>"NA"</t>
-  </si>
-  <si>
     <t xml:space="preserve">event </t>
   </si>
   <si>
@@ -413,9 +377,6 @@
     <t>Depth of the tow in meters; if a range, deployment was a towyo http://vocab.nerc.ac.uk/collection/P09/current/DEPH/</t>
   </si>
   <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
     <t>no_of_jars</t>
   </si>
   <si>
@@ -423,6 +384,54 @@
   </si>
   <si>
     <t>Time in UTC when the trawl net exited the water column</t>
+  </si>
+  <si>
+    <t>HRS2303_1</t>
+  </si>
+  <si>
+    <t>HRS2303_2</t>
+  </si>
+  <si>
+    <t>HRS2303_3</t>
+  </si>
+  <si>
+    <t>EN706_1</t>
+  </si>
+  <si>
+    <t>EN706_2</t>
+  </si>
+  <si>
+    <t>EN706_3</t>
+  </si>
+  <si>
+    <t>AR77_3</t>
+  </si>
+  <si>
+    <t>AR77_4</t>
+  </si>
+  <si>
+    <t>AR77_5</t>
+  </si>
+  <si>
+    <t>The number of sample vessels preserved from the catch</t>
+  </si>
+  <si>
+    <t>Identification number of sample vessel processed for identification and counting</t>
+  </si>
+  <si>
+    <t>Substance and/or method of preservation of each sample, typically formalin or ethanol https://dwc.tdwg.org/list/#dwc_preparations</t>
+  </si>
+  <si>
+    <t>Taxon life stage http://rs.tdwg.org/dwc/iri/lifeStage using BODC vocabulary http://vocab.nerc.ac.uk/collection/S11/current/</t>
+  </si>
+  <si>
+    <t>Taxon abundance as total number of individuals caught in trawl net from event corresponding to column name</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Not taxonomically identified</t>
   </si>
 </sst>
 </file>
--- a/trawl-transect-info.xlsx
+++ b/trawl-transect-info.xlsx
@@ -1,3 +1,33 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkoch\Desktop\LTER\nes-lter-trawl-transect-abundance\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E25F986-53F8-48F4-A3EC-73956C251E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="4600" yWindow="1080" windowWidth="14400" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="ColumnHeadersCount" sheetId="1" r:id="rId1"/>
+    <sheet name="ColumnHeadersMeta" sheetId="6" r:id="rId2"/>
+    <sheet name="CategoricalVariables" sheetId="5" r:id="rId3"/>
+    <sheet name="Personnel" sheetId="2" r:id="rId4"/>
+    <sheet name="Keywords" sheetId="3" r:id="rId5"/>
+  </sheets>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="144">
@@ -434,4 +464,1750 @@
     <t>Not taxonomically identified</t>
   </si>
 </sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="62.81640625" customWidth="1"/>
+    <col min="3" max="8" width="20.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961B8272-BE89-47C4-A9EE-48AB38393BB4}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.54296875" customWidth="1"/>
+    <col min="2" max="2" width="62.81640625" customWidth="1"/>
+    <col min="3" max="8" width="20.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="5" max="5" width="26.36328125" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" customWidth="1"/>
+    <col min="8" max="8" width="23.6328125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="46.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>